--- a/test_input/input.xlsx
+++ b/test_input/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward\Desktop\mm_kinetics_flask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eking/Desktop/enz_kinetics/enz_kinetics_flask/test_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE696879-1D44-4E7F-A115-438E531E9109}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6778028-80EE-3640-BE1E-20A87B57C233}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14970" yWindow="2140" windowWidth="30350" windowHeight="15720" xr2:uid="{BD8AC681-D0ED-4AD1-9883-7280057A023F}"/>
+    <workbookView xWindow="18200" yWindow="2440" windowWidth="28800" windowHeight="15720" xr2:uid="{BD8AC681-D0ED-4AD1-9883-7280057A023F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,100 +377,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535EDEF9-02D8-40D6-8F44-4DAFAE7E738A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B1">
-        <v>12.484</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="C1">
-        <v>11.625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>19.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="B2">
-        <v>5.4690000000000003</v>
+        <v>18.45</v>
       </c>
       <c r="C2">
-        <v>11.593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16.87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B3">
-        <v>5.4109999999999996</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>9.3160000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.05</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="B4">
-        <v>5.4329999999999998</v>
+        <v>9.94</v>
       </c>
       <c r="C4">
-        <v>8.3019999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.02</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B5">
-        <v>4.0149999999999997</v>
+        <v>4.34</v>
       </c>
       <c r="C5">
-        <v>5.1929999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.01</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B6">
-        <v>3.524</v>
+        <v>2.09</v>
       </c>
       <c r="C6">
-        <v>4.0839999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B7">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="C7">
-        <v>2.3530000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2E-3</v>
-      </c>
-      <c r="B8">
-        <v>1.8</v>
-      </c>
-      <c r="C8">
-        <v>1.629</v>
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
